--- a/results/[10_hot_summers]_#_inv_cost.xlsx
+++ b/results/[10_hot_summers]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5438.409379980163</v>
+        <v>10372.65132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13868.5083630681</v>
+        <v>289260.5393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7286.33314139565</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31113.977708736</v>
+        <v>161710.6685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>484922.2142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>105953.7713982</v>
       </c>
       <c r="N2" t="n">
-        <v>4897.602148891324</v>
+        <v>70003.73489578845</v>
       </c>
       <c r="O2" t="n">
-        <v>7262.375938507258</v>
+        <v>69744.89343456978</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4076.683804611164</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9077.854925484444</v>
+        <v>31203.23858116339</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38668.68259872351</v>
+        <v>170658.5511254234</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>57990.58492007876</v>
+        <v>209080.6134235085</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63518.11613148725</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>68536.72857011756</v>
       </c>
       <c r="N2" t="n">
-        <v>8321.538881516826</v>
+        <v>19285.19160463996</v>
       </c>
       <c r="O2" t="n">
-        <v>7021.211903140116</v>
+        <v>27033.1386905727</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5310.359013814369</v>
+        <v>27543.1755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>14058.13149740678</v>
+        <v>22113.21643273498</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58157.14951550964</v>
+        <v>114655.4402706629</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85997.51828916262</v>
+        <v>153866.0861464091</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44638.22942194272</v>
       </c>
       <c r="N2" t="n">
-        <v>15130.30412399452</v>
+        <v>39676.88529639924</v>
       </c>
       <c r="O2" t="n">
-        <v>11504.71832746226</v>
+        <v>31311.04369977792</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1142.580190039942</v>
       </c>
       <c r="O2" t="n">
-        <v>741.276702963037</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2327.934439300461</v>
+        <v>29588.33508286276</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4347.543515635315</v>
       </c>
       <c r="O2" t="n">
-        <v>612.1420905210745</v>
+        <v>20429.76977394434</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_inv_cost.xlsx
+++ b/results/[10_hot_summers]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10537.64464845725</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4001.873339729916</v>
+        <v>2816.081816490544</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131552.0691895259</v>
+        <v>290448.710791117</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661569</v>
+        <v>80959.2571266189</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>199804.818599716</v>
+        <v>149016.7422553115</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>183081.44584818</v>
+        <v>508759.14042756</v>
       </c>
       <c r="M2" t="n">
-        <v>62281.88248753652</v>
+        <v>112294.70312225</v>
       </c>
       <c r="N2" t="n">
-        <v>58866.90534545624</v>
+        <v>71748.287220303</v>
       </c>
       <c r="O2" t="n">
-        <v>35961.95305895126</v>
+        <v>68708.36059703978</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43578.78099659937</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>33544.65457265518</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>284053.8397344216</v>
+        <v>168452.0996188722</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162674.924806384</v>
+        <v>214600.8336629318</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>903481.9731303095</v>
+        <v>122074.8136079518</v>
       </c>
       <c r="M2" t="n">
-        <v>192364.1333716703</v>
+        <v>62130.06233472498</v>
       </c>
       <c r="N2" t="n">
-        <v>128824.1078904321</v>
+        <v>20747.02348362707</v>
       </c>
       <c r="O2" t="n">
-        <v>64260.20818517997</v>
+        <v>15669.81441039132</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57227.46510898462</v>
+        <v>21481.60171297619</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>21779.96069089971</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>594460.8765661615</v>
+        <v>116585.7597972618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>581257.8188476899</v>
+        <v>108590.1078673412</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>476619.4584621346</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>373978.1058753773</v>
+        <v>57607.25690313715</v>
       </c>
       <c r="N2" t="n">
-        <v>98076.81172248325</v>
+        <v>42857.09872656994</v>
       </c>
       <c r="O2" t="n">
-        <v>161290.2562674361</v>
+        <v>46458.56846577578</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_inv_cost.xlsx
+++ b/results/[10_hot_summers]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2816.081816490544</v>
+        <v>2062.1809032</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>290448.710791117</v>
+        <v>291069.2862091724</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.2571266189</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>149016.7422553115</v>
+        <v>148652.5872276</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>508759.14042756</v>
+        <v>509125.9821312751</v>
       </c>
       <c r="M2" t="n">
-        <v>112294.70312225</v>
+        <v>112470.9127927</v>
       </c>
       <c r="N2" t="n">
-        <v>71748.287220303</v>
+        <v>72560.46740536761</v>
       </c>
       <c r="O2" t="n">
-        <v>68708.36059703978</v>
+        <v>68708.80120585454</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>33544.65457265518</v>
+        <v>48847.97250432047</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>168452.0996188722</v>
+        <v>275288.7038538232</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>214600.8336629318</v>
+        <v>284097.1166367626</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>122074.8136079518</v>
+        <v>257107.5985254353</v>
       </c>
       <c r="M2" t="n">
-        <v>62130.06233472498</v>
+        <v>105992.8640084325</v>
       </c>
       <c r="N2" t="n">
-        <v>20747.02348362707</v>
+        <v>33892.28451258693</v>
       </c>
       <c r="O2" t="n">
-        <v>15669.81441039132</v>
+        <v>35046.15750099967</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21481.60171297619</v>
+        <v>22680.65032447391</v>
       </c>
       <c r="B2" t="n">
-        <v>21779.96069089971</v>
+        <v>19944.27970611305</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>116585.7597972618</v>
+        <v>105109.2055170748</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>108590.1078673412</v>
+        <v>90040.7107790998</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>57607.25690313715</v>
+        <v>57074.83554118505</v>
       </c>
       <c r="N2" t="n">
-        <v>42857.09872656994</v>
+        <v>51192.95312943371</v>
       </c>
       <c r="O2" t="n">
-        <v>46458.56846577578</v>
+        <v>49027.54443095748</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_inv_cost.xlsx
+++ b/results/[10_hot_summers]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10372.65132737054</v>
+        <v>9739.537847600008</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289260.5393052954</v>
+        <v>289823.7596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161710.6685703679</v>
+        <v>161752.8135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>484922.2142001599</v>
+        <v>485245.29503538</v>
       </c>
       <c r="M2" t="n">
-        <v>105953.7713982</v>
+        <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70003.73489578845</v>
+        <v>70831.955579581</v>
       </c>
       <c r="O2" t="n">
-        <v>69744.89343456978</v>
+        <v>69610.4422391004</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31203.23858116339</v>
+        <v>47386.06393082884</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>170658.5511254234</v>
+        <v>271236.7992183856</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209080.6134235085</v>
+        <v>280426.171173861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63518.11613148725</v>
+        <v>184420.4799505123</v>
       </c>
       <c r="M2" t="n">
-        <v>68536.72857011756</v>
+        <v>113936.92264746</v>
       </c>
       <c r="N2" t="n">
-        <v>19285.19160463996</v>
+        <v>33931.8246116005</v>
       </c>
       <c r="O2" t="n">
-        <v>27033.1386905727</v>
+        <v>50485.47232467777</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27543.1755456332</v>
+        <v>28619.61401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>22113.21643273498</v>
+        <v>23143.29485244409</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114655.4402706629</v>
+        <v>111916.8406725409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>153866.0861464091</v>
+        <v>150385.2728707001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44638.22942194272</v>
+        <v>34803.41203795493</v>
       </c>
       <c r="N2" t="n">
-        <v>39676.88529639924</v>
+        <v>44938.11408779013</v>
       </c>
       <c r="O2" t="n">
-        <v>31311.04369977792</v>
+        <v>26938.31306104351</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1142.580190039942</v>
+        <v>1014.766490779938</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29588.33508286276</v>
+        <v>34409.11717595647</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4347.543515635315</v>
+        <v>5182.698656944208</v>
       </c>
       <c r="O2" t="n">
-        <v>20429.76977394434</v>
+        <v>22972.54525065906</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_inv_cost.xlsx
+++ b/results/[10_hot_summers]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10537.64464845725</v>
+        <v>39031.81680257917</v>
       </c>
       <c r="B2" t="n">
-        <v>4001.873339729916</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>480246.8820317771</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>131552.0691895259</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95787.21511093997</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661569</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.77928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>199804.818599716</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>183081.44584818</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>62281.88248753652</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58866.90534545624</v>
+        <v>25823.80931805474</v>
       </c>
       <c r="O2" t="n">
-        <v>35961.95305895126</v>
+        <v>19940.13531829328</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43578.78099659937</v>
+        <v>23487.56815424719</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1467088.966078617</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>284053.8397344216</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>68781.60553734947</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>56050.91370599702</v>
       </c>
       <c r="I2" t="n">
-        <v>162674.924806384</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>903481.9731303095</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>192364.1333716703</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>128824.1078904321</v>
+        <v>66717.81459722698</v>
       </c>
       <c r="O2" t="n">
-        <v>64260.20818517997</v>
+        <v>43020.57726047601</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57227.46510898462</v>
+        <v>207419.8979521164</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>976574.8336064226</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>594460.8765661615</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8362.158153930155</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>34927.32941383945</v>
       </c>
       <c r="I2" t="n">
-        <v>581257.8188476899</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>476619.4584621346</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>373978.1058753773</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>98076.81172248325</v>
+        <v>47127.76482519005</v>
       </c>
       <c r="O2" t="n">
-        <v>161290.2562674361</v>
+        <v>33787.02056213662</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[10_hot_summers]_#_inv_cost.xlsx
+++ b/results/[10_hot_summers]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>39063.99109145206</v>
       </c>
       <c r="B2" t="n">
-        <v>5438.409379980163</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>483537.6274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13868.5083630681</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94331.34471502228</v>
       </c>
       <c r="G2" t="n">
-        <v>7286.33314139565</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.77928792104</v>
       </c>
       <c r="I2" t="n">
-        <v>31113.977708736</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4897.602148891324</v>
+        <v>23638.06126801545</v>
       </c>
       <c r="O2" t="n">
-        <v>7262.375938507258</v>
+        <v>19940.13531829346</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4076.683804611164</v>
+        <v>30846.52922536713</v>
       </c>
       <c r="B2" t="n">
-        <v>9077.854925484444</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1495599.874611417</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38668.68259872351</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>70193.79982138964</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>56602.42752520426</v>
       </c>
       <c r="I2" t="n">
-        <v>57990.58492007876</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8321.538881516826</v>
+        <v>51649.16401227913</v>
       </c>
       <c r="O2" t="n">
-        <v>7021.211903140116</v>
+        <v>42574.77934331147</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5310.359013814369</v>
+        <v>242452.4252219552</v>
       </c>
       <c r="B2" t="n">
-        <v>14058.13149740678</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>943335.270081223</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58157.14951550964</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1425.925979620855</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39373.98526588717</v>
       </c>
       <c r="I2" t="n">
-        <v>85997.51828916262</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15130.30412399452</v>
+        <v>53308.16490721726</v>
       </c>
       <c r="O2" t="n">
-        <v>11504.71832746226</v>
+        <v>30023.09380555204</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11578.49752443177</v>
       </c>
       <c r="O2" t="n">
-        <v>741.276702963037</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2327.934439300461</v>
+        <v>76705.58894163162</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1930.947398408091</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>28147.3462746636</v>
       </c>
       <c r="O2" t="n">
-        <v>612.1420905210745</v>
+        <v>8312.661449003012</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[10_hot_summers]_#_inv_cost.xlsx
+++ b/results/[10_hot_summers]_#_inv_cost.xlsx
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>25823.80931805474</v>
+        <v>25823.80931805447</v>
       </c>
       <c r="O2" t="n">
-        <v>19940.13531829328</v>
+        <v>19940.13531829329</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>23487.56815424719</v>
+        <v>23487.56815424954</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1467088.966078617</v>
+        <v>1467088.966078616</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>66717.81459722698</v>
+        <v>66717.8145972262</v>
       </c>
       <c r="O2" t="n">
-        <v>43020.57726047601</v>
+        <v>43020.57726047599</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>207419.8979521164</v>
+        <v>207419.8979521211</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>976574.8336064226</v>
+        <v>976574.8336064207</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8362.158153930155</v>
+        <v>8362.158153921442</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34927.32941383945</v>
+        <v>34927.32941383766</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>47127.76482519005</v>
+        <v>47127.76482518904</v>
       </c>
       <c r="O2" t="n">
-        <v>33787.02056213662</v>
+        <v>33787.02056213821</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_inv_cost.xlsx
+++ b/results/[10_hot_summers]_#_inv_cost.xlsx
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>80959.25712660638</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>509125.9821312751</v>
+        <v>509125.9821312752</v>
       </c>
       <c r="M2" t="n">
         <v>112470.9127927</v>
       </c>
       <c r="N2" t="n">
-        <v>72560.46740536761</v>
+        <v>72560.46740537217</v>
       </c>
       <c r="O2" t="n">
         <v>68708.80120585454</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>48847.97250432047</v>
+        <v>48847.97250432038</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>275288.7038538232</v>
+        <v>275288.7038538422</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>257107.5985254353</v>
+        <v>257107.5985254352</v>
       </c>
       <c r="M2" t="n">
         <v>105992.8640084325</v>
       </c>
       <c r="N2" t="n">
-        <v>33892.28451258693</v>
+        <v>33892.2845125723</v>
       </c>
       <c r="O2" t="n">
-        <v>35046.15750099967</v>
+        <v>35046.15750099979</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22680.65032447391</v>
+        <v>22680.6503244739</v>
       </c>
       <c r="B2" t="n">
-        <v>19944.27970611305</v>
+        <v>19944.27970611314</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>105109.2055170748</v>
+        <v>105109.2055170583</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>90040.7107790998</v>
+        <v>90040.71077910838</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>57074.83554118505</v>
       </c>
       <c r="N2" t="n">
-        <v>51192.95312943371</v>
+        <v>51192.9531294465</v>
       </c>
       <c r="O2" t="n">
-        <v>49027.54443095748</v>
+        <v>49027.54443095076</v>
       </c>
     </row>
   </sheetData>

--- a/results/[10_hot_summers]_#_inv_cost.xlsx
+++ b/results/[10_hot_summers]_#_inv_cost.xlsx
@@ -556,10 +556,10 @@
         <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70831.955579581</v>
+        <v>70831.95557958097</v>
       </c>
       <c r="O2" t="n">
-        <v>69610.4422391004</v>
+        <v>69610.44223910036</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47386.06393082884</v>
+        <v>47338.61932520662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>280426.171173861</v>
+        <v>283167.7766510943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>184420.4799505123</v>
+        <v>178095.3756971828</v>
       </c>
       <c r="M2" t="n">
-        <v>113936.92264746</v>
+        <v>114008.3253427963</v>
       </c>
       <c r="N2" t="n">
-        <v>33931.8246116005</v>
+        <v>33931.82461160053</v>
       </c>
       <c r="O2" t="n">
-        <v>50485.47232467777</v>
+        <v>50657.26889981552</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28619.61401238371</v>
+        <v>29273.60317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>23143.29485244409</v>
+        <v>22330.72247668595</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>111916.8406725409</v>
+        <v>110739.3594843864</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150385.2728707001</v>
+        <v>150386.9441391908</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34803.41203795493</v>
+        <v>35556.98862372932</v>
       </c>
       <c r="N2" t="n">
-        <v>44938.11408779013</v>
+        <v>44813.41193308897</v>
       </c>
       <c r="O2" t="n">
-        <v>26938.31306104351</v>
+        <v>26775.55841092002</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.766490779938</v>
+        <v>1041.156112142704</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34409.11717595647</v>
+        <v>34256.25291363284</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5182.698656944208</v>
+        <v>5271.89502409355</v>
       </c>
       <c r="O2" t="n">
-        <v>22972.54525065906</v>
+        <v>22972.54525065989</v>
       </c>
     </row>
   </sheetData>
